--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="11715" activeTab="3"/>
+    <workbookView windowHeight="17580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Дисциплины" sheetId="1" r:id="rId1"/>
-    <sheet name="ТипыОбъекта" sheetId="2" r:id="rId2"/>
-    <sheet name="Функции" sheetId="3" r:id="rId3"/>
-    <sheet name="Секции" sheetId="4" r:id="rId4"/>
+    <sheet name="Disciplines" sheetId="1" r:id="rId1"/>
+    <sheet name="FileFunctions" sheetId="3" r:id="rId2"/>
+    <sheet name="ObjectTypes" sheetId="2" r:id="rId3"/>
+    <sheet name="SectionType" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,12 +206,138 @@
     <t>ИИ - Инженерные изыскания</t>
   </si>
   <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>БЛАГ</t>
+  </si>
+  <si>
+    <t>БЛАГ - Благоустройство (АР)</t>
+  </si>
+  <si>
+    <t>ВФ</t>
+  </si>
+  <si>
+    <t>ВФ - Фасадные системы (АР)</t>
+  </si>
+  <si>
+    <t>ТН</t>
+  </si>
+  <si>
+    <t>ТН - Теневые навесы (АР)</t>
+  </si>
+  <si>
+    <t>ВНС</t>
+  </si>
+  <si>
+    <t>ВНС - Насосная водоводная станция (АР, ВК)</t>
+  </si>
+  <si>
+    <t>ГИ</t>
+  </si>
+  <si>
+    <t>ГИ - Гидроизоляция (КР)</t>
+  </si>
+  <si>
+    <t>АН</t>
+  </si>
+  <si>
+    <t>АН - Аналитическая модель (КР)</t>
+  </si>
+  <si>
+    <t>КМ - Металлический каркас (КР)</t>
+  </si>
+  <si>
+    <t>ФП</t>
+  </si>
+  <si>
+    <t>ФП - Фундаменты (КР)</t>
+  </si>
+  <si>
+    <t>СТ</t>
+  </si>
+  <si>
+    <t>СТ - Стены (КР)</t>
+  </si>
+  <si>
+    <t>ЛМ</t>
+  </si>
+  <si>
+    <t>ЛМ - Лестницы (КР)</t>
+  </si>
+  <si>
+    <t>КП</t>
+  </si>
+  <si>
+    <t>КП - Крепление перегородок (КР)</t>
+  </si>
+  <si>
+    <t>ПМ</t>
+  </si>
+  <si>
+    <t>ПМ - Перекрытия (КР)</t>
+  </si>
+  <si>
+    <t>ОТ</t>
+  </si>
+  <si>
+    <t>ОТ - Ограждение территории (КР)</t>
+  </si>
+  <si>
+    <t>КТЛ</t>
+  </si>
+  <si>
+    <t>КТЛ - Котлован (КР)</t>
+  </si>
+  <si>
+    <t>ШП</t>
+  </si>
+  <si>
+    <t>ШП - Шпунт (КР)</t>
+  </si>
+  <si>
+    <t>НСК</t>
+  </si>
+  <si>
+    <t>НСК - Конструкции внутриплощадочных сетей: бетонные лотки, фундаменты теплотрасс и т.п. (КР)</t>
+  </si>
+  <si>
+    <t>ФНС</t>
+  </si>
+  <si>
+    <t>ФНС - Фундаменты наружных сетей (КР)</t>
+  </si>
+  <si>
+    <t>ЛР</t>
+  </si>
+  <si>
+    <t>ЛР - Ливневой резервуар</t>
+  </si>
+  <si>
+    <t>ПР</t>
+  </si>
+  <si>
+    <t>ПР - Пожарный резервуар</t>
+  </si>
+  <si>
+    <t>ПСТ</t>
+  </si>
+  <si>
+    <t>ПСТ - Подпорные стены</t>
+  </si>
+  <si>
+    <t>БР</t>
+  </si>
+  <si>
+    <t>БР - Резервуар бытовых отходов</t>
+  </si>
+  <si>
     <t>Тип объекта</t>
   </si>
   <si>
-    <t>Описание</t>
-  </si>
-  <si>
     <t>ШК</t>
   </si>
   <si>
@@ -402,132 +528,6 @@
   </si>
   <si>
     <t>ОП - Офис продаж</t>
-  </si>
-  <si>
-    <t>Функции</t>
-  </si>
-  <si>
-    <t>БЛАГ</t>
-  </si>
-  <si>
-    <t>БЛАГ - Благоустройство (АР)</t>
-  </si>
-  <si>
-    <t>ВФ</t>
-  </si>
-  <si>
-    <t>ВФ - Фасадные системы (АР)</t>
-  </si>
-  <si>
-    <t>ТН</t>
-  </si>
-  <si>
-    <t>ТН - Теневые навесы (АР)</t>
-  </si>
-  <si>
-    <t>ВНС</t>
-  </si>
-  <si>
-    <t>ВНС - Насосная водоводная станция (АР, ВК)</t>
-  </si>
-  <si>
-    <t>ГИ</t>
-  </si>
-  <si>
-    <t>ГИ - Гидроизоляция (КР)</t>
-  </si>
-  <si>
-    <t>АН</t>
-  </si>
-  <si>
-    <t>АН - Аналитическая модель (КР)</t>
-  </si>
-  <si>
-    <t>КМ - Металлический каркас (КР)</t>
-  </si>
-  <si>
-    <t>ФП</t>
-  </si>
-  <si>
-    <t>ФП - Фундаменты (КР)</t>
-  </si>
-  <si>
-    <t>СТ</t>
-  </si>
-  <si>
-    <t>СТ - Стены (КР)</t>
-  </si>
-  <si>
-    <t>ЛМ</t>
-  </si>
-  <si>
-    <t>ЛМ - Лестницы (КР)</t>
-  </si>
-  <si>
-    <t>КП</t>
-  </si>
-  <si>
-    <t>КП - Крепление перегородок (КР)</t>
-  </si>
-  <si>
-    <t>ПМ</t>
-  </si>
-  <si>
-    <t>ПМ - Перекрытия (КР)</t>
-  </si>
-  <si>
-    <t>ОТ</t>
-  </si>
-  <si>
-    <t>ОТ - Ограждение территории (КР)</t>
-  </si>
-  <si>
-    <t>КТЛ</t>
-  </si>
-  <si>
-    <t>КТЛ - Котлован (КР)</t>
-  </si>
-  <si>
-    <t>ШП</t>
-  </si>
-  <si>
-    <t>ШП - Шпунт (КР)</t>
-  </si>
-  <si>
-    <t>НСК</t>
-  </si>
-  <si>
-    <t>НСК - Конструкции внутриплощадочных сетей: бетонные лотки, фундаменты теплотрасс и т.п. (КР)</t>
-  </si>
-  <si>
-    <t>ФНС</t>
-  </si>
-  <si>
-    <t>ФНС - Фундаменты наружных сетей (КР)</t>
-  </si>
-  <si>
-    <t>ЛР</t>
-  </si>
-  <si>
-    <t>ЛР - Ливневой резервуар</t>
-  </si>
-  <si>
-    <t>ПР</t>
-  </si>
-  <si>
-    <t>ПР - Пожарный резервуар</t>
-  </si>
-  <si>
-    <t>ПСТ</t>
-  </si>
-  <si>
-    <t>ПСТ - Подпорные стены</t>
-  </si>
-  <si>
-    <t>БР</t>
-  </si>
-  <si>
-    <t>БР - Резервуар бытовых отходов</t>
   </si>
   <si>
     <t>Секции</t>
@@ -1253,16 +1253,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B29"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1831,7 +1831,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2060,12 +2060,210 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
+    <tabColor theme="8" tint="0.8"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="90.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <tabColor theme="9" tint="0.8"/>
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2076,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>59</v>
@@ -2084,455 +2282,257 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>106</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>116</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>120</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>124</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>87</v>
+        <v>128</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>132</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>136</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>97</v>
+        <v>138</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>140</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>103</v>
+        <v>144</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>107</v>
+        <v>148</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>109</v>
+        <v>150</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>152</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>113</v>
+        <v>154</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>115</v>
+        <v>156</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>119</v>
+        <v>160</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>121</v>
+        <v>162</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="8" tint="0.8"/>
-  </sheetPr>
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="90.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2549,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
